--- a/input/Aide/fish5_linear.xlsx
+++ b/input/Aide/fish5_linear.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/scriptGen/input/Aide/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12035F9B-3079-724F-851C-F2B94B487285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="腳本設定" sheetId="2" r:id="rId1"/>
-    <sheet name="Script" sheetId="3" r:id="rId2"/>
+    <sheet name="設定值" sheetId="2" r:id="rId1"/>
+    <sheet name="被呼叫的腳本設定" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,23 +42,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>預設動作</t>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CallScript1</t>
+    <t>預設動作 (陣列)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
+    <t>linear_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -67,24 +68,29 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -105,72 +111,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -304,36 +250,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -411,6 +350,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1490,98 +1432,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="142" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.3984375" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1594,61 +1473,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" zoomScale="162" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.3984375" style="13" customWidth="1"/>
+    <col min="1" max="5" width="16.3984375" style="4" customWidth="1"/>
     <col min="6" max="256" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
